--- a/mf-intelligence/data/separated_files/nippon/Nippon India Arbitrage Fund/Nippon India Arbitrage Fund_Jan_2026.xlsx
+++ b/mf-intelligence/data/separated_files/nippon/Nippon India Arbitrage Fund/Nippon India Arbitrage Fund_Jan_2026.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H365"/>
+  <dimension ref="A1:H179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Industry / Rating</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -6205,5236 +6205,6 @@
       <c r="H179" t="n">
         <v>0.072496</v>
       </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>118719</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>INF204K01ZP3</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Nippon India Money Market Fund Dir Pl-Growth-Gr Op</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr"/>
-      <c r="E180" t="n">
-        <v>3912645.5006</v>
-      </c>
-      <c r="F180" t="n">
-        <v>170529.61</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0.104</v>
-      </c>
-      <c r="H180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>143494</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>INF204K01YH3</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Nippon India Ultra Short Duration Fund- Dr Gr Op</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr"/>
-      <c r="E181" t="n">
-        <v>2108546.822</v>
-      </c>
-      <c r="F181" t="n">
-        <v>97197.56</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0.0593</v>
-      </c>
-      <c r="H181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>118701</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>INF204K01ZH0</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Nippon India Liquid Fund-Direct Growth Plan</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr"/>
-      <c r="E182" t="n">
-        <v>474324.207</v>
-      </c>
-      <c r="F182" t="n">
-        <v>31663.29</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0.0193</v>
-      </c>
-      <c r="H182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr"/>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Long/Short</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Name of the Instrument</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>Industry</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>Quantity.</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Market/Fair Value (Rs. in Lacs).</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> % to NAV.</t>
-        </is>
-      </c>
-      <c r="H183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr"/>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>HDFC Bank Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E184" t="n">
-        <v>7426100</v>
-      </c>
-      <c r="F184" t="n">
-        <v>69348.63</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0.0423</v>
-      </c>
-      <c r="H184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr"/>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Axis Bank Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E185" t="n">
-        <v>2963125</v>
-      </c>
-      <c r="F185" t="n">
-        <v>40689.63</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0.0248</v>
-      </c>
-      <c r="H185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr"/>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>ICICI Bank Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E186" t="n">
-        <v>2803500</v>
-      </c>
-      <c r="F186" t="n">
-        <v>38175.26</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0.0233</v>
-      </c>
-      <c r="H186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr"/>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Bharti Airtel Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Telecom - Services</t>
-        </is>
-      </c>
-      <c r="E187" t="n">
-        <v>1849175</v>
-      </c>
-      <c r="F187" t="n">
-        <v>36510.11</v>
-      </c>
-      <c r="G187" t="n">
-        <v>0.0223</v>
-      </c>
-      <c r="H187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr"/>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Reliance Industries Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>Petroleum Products</t>
-        </is>
-      </c>
-      <c r="E188" t="n">
-        <v>2435500</v>
-      </c>
-      <c r="F188" t="n">
-        <v>34084.82</v>
-      </c>
-      <c r="G188" t="n">
-        <v>0.0208</v>
-      </c>
-      <c r="H188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr"/>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>JSW Steel Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Ferrous Metals</t>
-        </is>
-      </c>
-      <c r="E189" t="n">
-        <v>2770875</v>
-      </c>
-      <c r="F189" t="n">
-        <v>33776.97</v>
-      </c>
-      <c r="G189" t="n">
-        <v>0.0206</v>
-      </c>
-      <c r="H189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr"/>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Eternal Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>Retailing</t>
-        </is>
-      </c>
-      <c r="E190" t="n">
-        <v>11559975</v>
-      </c>
-      <c r="F190" t="n">
-        <v>31703.23</v>
-      </c>
-      <c r="G190" t="n">
-        <v>0.0193</v>
-      </c>
-      <c r="H190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr"/>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>State Bank of India_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E191" t="n">
-        <v>2798250</v>
-      </c>
-      <c r="F191" t="n">
-        <v>30288.26</v>
-      </c>
-      <c r="G191" t="n">
-        <v>0.0185</v>
-      </c>
-      <c r="H191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr"/>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>Grasim Industries Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>Cement &amp; Cement Products</t>
-        </is>
-      </c>
-      <c r="E192" t="n">
-        <v>883500</v>
-      </c>
-      <c r="F192" t="n">
-        <v>25019.84</v>
-      </c>
-      <c r="G192" t="n">
-        <v>0.0153</v>
-      </c>
-      <c r="H192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr"/>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Jio Financial Services Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E193" t="n">
-        <v>9531600</v>
-      </c>
-      <c r="F193" t="n">
-        <v>24343.71</v>
-      </c>
-      <c r="G193" t="n">
-        <v>0.0149</v>
-      </c>
-      <c r="H193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr"/>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Vodafone Idea Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>Telecom - Services</t>
-        </is>
-      </c>
-      <c r="E194" t="n">
-        <v>210922725</v>
-      </c>
-      <c r="F194" t="n">
-        <v>23644.44</v>
-      </c>
-      <c r="G194" t="n">
-        <v>0.0144</v>
-      </c>
-      <c r="H194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr"/>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>HDFC Bank Limited_30/03/2026</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E195" t="n">
-        <v>2358950</v>
-      </c>
-      <c r="F195" t="n">
-        <v>22171.77</v>
-      </c>
-      <c r="G195" t="n">
-        <v>0.0135</v>
-      </c>
-      <c r="H195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr"/>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>ICICI Bank Limited_30/03/2026</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E196" t="n">
-        <v>1498700</v>
-      </c>
-      <c r="F196" t="n">
-        <v>20541.18</v>
-      </c>
-      <c r="G196" t="n">
-        <v>0.0125</v>
-      </c>
-      <c r="H196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr"/>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Vedanta Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>Diversified Metals</t>
-        </is>
-      </c>
-      <c r="E197" t="n">
-        <v>2991150</v>
-      </c>
-      <c r="F197" t="n">
-        <v>20474.42</v>
-      </c>
-      <c r="G197" t="n">
-        <v>0.0125</v>
-      </c>
-      <c r="H197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr"/>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>Maruti Suzuki India Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>Automobiles</t>
-        </is>
-      </c>
-      <c r="E198" t="n">
-        <v>126600</v>
-      </c>
-      <c r="F198" t="n">
-        <v>18569.69</v>
-      </c>
-      <c r="G198" t="n">
-        <v>0.0113</v>
-      </c>
-      <c r="H198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr"/>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Dixon Technologies (India) Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>Consumer Durables</t>
-        </is>
-      </c>
-      <c r="E199" t="n">
-        <v>172350</v>
-      </c>
-      <c r="F199" t="n">
-        <v>18058.83</v>
-      </c>
-      <c r="G199" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="H199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr"/>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>Patanjali Foods Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>Agricultural Food &amp; other Products</t>
-        </is>
-      </c>
-      <c r="E200" t="n">
-        <v>3546000</v>
-      </c>
-      <c r="F200" t="n">
-        <v>17811.56</v>
-      </c>
-      <c r="G200" t="n">
-        <v>0.0109</v>
-      </c>
-      <c r="H200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr"/>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>Reliance Industries Limited_30/03/2026</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>Petroleum Products</t>
-        </is>
-      </c>
-      <c r="E201" t="n">
-        <v>1231500</v>
-      </c>
-      <c r="F201" t="n">
-        <v>17349.37</v>
-      </c>
-      <c r="G201" t="n">
-        <v>0.0106</v>
-      </c>
-      <c r="H201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr"/>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>Container Corporation of India Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>Transport Services</t>
-        </is>
-      </c>
-      <c r="E202" t="n">
-        <v>3418750</v>
-      </c>
-      <c r="F202" t="n">
-        <v>17145.03</v>
-      </c>
-      <c r="G202" t="n">
-        <v>0.0105</v>
-      </c>
-      <c r="H202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr"/>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>Larsen &amp; Toubro Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>Construction</t>
-        </is>
-      </c>
-      <c r="E203" t="n">
-        <v>432775</v>
-      </c>
-      <c r="F203" t="n">
-        <v>17060.42</v>
-      </c>
-      <c r="G203" t="n">
-        <v>0.0104</v>
-      </c>
-      <c r="H203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr"/>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>UltraTech Cement Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>Cement &amp; Cement Products</t>
-        </is>
-      </c>
-      <c r="E204" t="n">
-        <v>130850</v>
-      </c>
-      <c r="F204" t="n">
-        <v>16650.66</v>
-      </c>
-      <c r="G204" t="n">
-        <v>0.0102</v>
-      </c>
-      <c r="H204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr"/>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Godrej Properties Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>Realty</t>
-        </is>
-      </c>
-      <c r="E205" t="n">
-        <v>1040600</v>
-      </c>
-      <c r="F205" t="n">
-        <v>16443.56</v>
-      </c>
-      <c r="G205" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr"/>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>Steel Authority of India Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>Ferrous Metals</t>
-        </is>
-      </c>
-      <c r="E206" t="n">
-        <v>10800600</v>
-      </c>
-      <c r="F206" t="n">
-        <v>16422.31</v>
-      </c>
-      <c r="G206" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr"/>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>Indus Towers Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>Telecom - Services</t>
-        </is>
-      </c>
-      <c r="E207" t="n">
-        <v>3430600</v>
-      </c>
-      <c r="F207" t="n">
-        <v>15267.89</v>
-      </c>
-      <c r="G207" t="n">
-        <v>0.009299999999999999</v>
-      </c>
-      <c r="H207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr"/>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>Tata Steel Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>Ferrous Metals</t>
-        </is>
-      </c>
-      <c r="E208" t="n">
-        <v>7639500</v>
-      </c>
-      <c r="F208" t="n">
-        <v>14787.02</v>
-      </c>
-      <c r="G208" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="H208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr"/>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Sun Pharmaceutical Industries Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
-      <c r="E209" t="n">
-        <v>919800</v>
-      </c>
-      <c r="F209" t="n">
-        <v>14652.41</v>
-      </c>
-      <c r="G209" t="n">
-        <v>0.0089</v>
-      </c>
-      <c r="H209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr"/>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>Mahindra &amp; Mahindra Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>Automobiles</t>
-        </is>
-      </c>
-      <c r="E210" t="n">
-        <v>415200</v>
-      </c>
-      <c r="F210" t="n">
-        <v>14316.51</v>
-      </c>
-      <c r="G210" t="n">
-        <v>0.008699999999999999</v>
-      </c>
-      <c r="H210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr"/>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>Kotak Mahindra Bank Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E211" t="n">
-        <v>3256000</v>
-      </c>
-      <c r="F211" t="n">
-        <v>13349.6</v>
-      </c>
-      <c r="G211" t="n">
-        <v>0.0081</v>
-      </c>
-      <c r="H211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr"/>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>Bharat Electronics Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>Aerospace &amp; Defense</t>
-        </is>
-      </c>
-      <c r="E212" t="n">
-        <v>2881350</v>
-      </c>
-      <c r="F212" t="n">
-        <v>12970.4</v>
-      </c>
-      <c r="G212" t="n">
-        <v>0.007900000000000001</v>
-      </c>
-      <c r="H212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr"/>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>Glenmark Pharmaceuticals Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
-      <c r="E213" t="n">
-        <v>625125</v>
-      </c>
-      <c r="F213" t="n">
-        <v>12657.53</v>
-      </c>
-      <c r="G213" t="n">
-        <v>0.0077</v>
-      </c>
-      <c r="H213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr"/>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>Ambuja Cements Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>Cement &amp; Cement Products</t>
-        </is>
-      </c>
-      <c r="E214" t="n">
-        <v>2460150</v>
-      </c>
-      <c r="F214" t="n">
-        <v>12584.9</v>
-      </c>
-      <c r="G214" t="n">
-        <v>0.0077</v>
-      </c>
-      <c r="H214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr"/>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>Aurobindo Pharma Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
-      <c r="E215" t="n">
-        <v>994950</v>
-      </c>
-      <c r="F215" t="n">
-        <v>12011.04</v>
-      </c>
-      <c r="G215" t="n">
-        <v>0.0073</v>
-      </c>
-      <c r="H215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr"/>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>Bajaj Finance Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E216" t="n">
-        <v>1258500</v>
-      </c>
-      <c r="F216" t="n">
-        <v>11739.92</v>
-      </c>
-      <c r="G216" t="n">
-        <v>0.0072</v>
-      </c>
-      <c r="H216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr"/>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>Adani Ports and Special Economic Zone Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>Transport Infrastructure</t>
-        </is>
-      </c>
-      <c r="E217" t="n">
-        <v>813200</v>
-      </c>
-      <c r="F217" t="n">
-        <v>11570.21</v>
-      </c>
-      <c r="G217" t="n">
-        <v>0.0071</v>
-      </c>
-      <c r="H217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr"/>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>RBL Bank Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E218" t="n">
-        <v>3797300</v>
-      </c>
-      <c r="F218" t="n">
-        <v>11371.01</v>
-      </c>
-      <c r="G218" t="n">
-        <v>0.0069</v>
-      </c>
-      <c r="H218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr"/>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>ITC Limited_30/03/2026</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>Diversified FMCG</t>
-        </is>
-      </c>
-      <c r="E219" t="n">
-        <v>3430400</v>
-      </c>
-      <c r="F219" t="n">
-        <v>11179.67</v>
-      </c>
-      <c r="G219" t="n">
-        <v>0.0068</v>
-      </c>
-      <c r="H219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr"/>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>Aditya Birla Capital Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E220" t="n">
-        <v>3248800</v>
-      </c>
-      <c r="F220" t="n">
-        <v>11062.16</v>
-      </c>
-      <c r="G220" t="n">
-        <v>0.0067</v>
-      </c>
-      <c r="H220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr"/>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>Marico Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>Agricultural Food &amp; other Products</t>
-        </is>
-      </c>
-      <c r="E221" t="n">
-        <v>1496400</v>
-      </c>
-      <c r="F221" t="n">
-        <v>10977.59</v>
-      </c>
-      <c r="G221" t="n">
-        <v>0.0067</v>
-      </c>
-      <c r="H221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr"/>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>ITC Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>Diversified FMCG</t>
-        </is>
-      </c>
-      <c r="E222" t="n">
-        <v>3316800</v>
-      </c>
-      <c r="F222" t="n">
-        <v>10741.46</v>
-      </c>
-      <c r="G222" t="n">
-        <v>0.0066</v>
-      </c>
-      <c r="H222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr"/>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>NMDC Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>Minerals &amp; Mining</t>
-        </is>
-      </c>
-      <c r="E223" t="n">
-        <v>13209750</v>
-      </c>
-      <c r="F223" t="n">
-        <v>10725</v>
-      </c>
-      <c r="G223" t="n">
-        <v>0.0065</v>
-      </c>
-      <c r="H223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr"/>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>Laurus Labs Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
-      <c r="E224" t="n">
-        <v>1094800</v>
-      </c>
-      <c r="F224" t="n">
-        <v>10605.33</v>
-      </c>
-      <c r="G224" t="n">
-        <v>0.0065</v>
-      </c>
-      <c r="H224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr"/>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>Mahindra &amp; Mahindra Limited_30/03/2026</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>Automobiles</t>
-        </is>
-      </c>
-      <c r="E225" t="n">
-        <v>299200</v>
-      </c>
-      <c r="F225" t="n">
-        <v>10382.24</v>
-      </c>
-      <c r="G225" t="n">
-        <v>0.0063</v>
-      </c>
-      <c r="H225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr"/>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>DLF Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>Realty</t>
-        </is>
-      </c>
-      <c r="E226" t="n">
-        <v>1551000</v>
-      </c>
-      <c r="F226" t="n">
-        <v>9879.09</v>
-      </c>
-      <c r="G226" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="H226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr"/>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>Tube Investments of India Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>Auto Components</t>
-        </is>
-      </c>
-      <c r="E227" t="n">
-        <v>421600</v>
-      </c>
-      <c r="F227" t="n">
-        <v>9855.32</v>
-      </c>
-      <c r="G227" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="H227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr"/>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>Shriram Finance Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E228" t="n">
-        <v>957825</v>
-      </c>
-      <c r="F228" t="n">
-        <v>9785.620000000001</v>
-      </c>
-      <c r="G228" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="H228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr"/>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>Titan Company Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>Consumer Durables</t>
-        </is>
-      </c>
-      <c r="E229" t="n">
-        <v>241150</v>
-      </c>
-      <c r="F229" t="n">
-        <v>9612.959999999999</v>
-      </c>
-      <c r="G229" t="n">
-        <v>0.0059</v>
-      </c>
-      <c r="H229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr"/>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>Adani Energy Solutions Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="E230" t="n">
-        <v>942300</v>
-      </c>
-      <c r="F230" t="n">
-        <v>8442.07</v>
-      </c>
-      <c r="G230" t="n">
-        <v>0.0052</v>
-      </c>
-      <c r="H230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr"/>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>IDFC First Bank Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E231" t="n">
-        <v>9887150</v>
-      </c>
-      <c r="F231" t="n">
-        <v>8279.5</v>
-      </c>
-      <c r="G231" t="n">
-        <v>0.0051</v>
-      </c>
-      <c r="H231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr"/>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>Yes Bank Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E232" t="n">
-        <v>38221900</v>
-      </c>
-      <c r="F232" t="n">
-        <v>8210.059999999999</v>
-      </c>
-      <c r="G232" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr"/>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>AU Small Finance Bank Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E233" t="n">
-        <v>833000</v>
-      </c>
-      <c r="F233" t="n">
-        <v>8202.129999999999</v>
-      </c>
-      <c r="G233" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr"/>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>Polycab India Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>Industrial Products</t>
-        </is>
-      </c>
-      <c r="E234" t="n">
-        <v>112250</v>
-      </c>
-      <c r="F234" t="n">
-        <v>7889.49</v>
-      </c>
-      <c r="G234" t="n">
-        <v>0.0048</v>
-      </c>
-      <c r="H234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr"/>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>APL Apollo Tubes Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>Industrial Products</t>
-        </is>
-      </c>
-      <c r="E235" t="n">
-        <v>358400</v>
-      </c>
-      <c r="F235" t="n">
-        <v>7366.2</v>
-      </c>
-      <c r="G235" t="n">
-        <v>0.0045</v>
-      </c>
-      <c r="H235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr"/>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Varun Beverages Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>Beverages</t>
-        </is>
-      </c>
-      <c r="E236" t="n">
-        <v>1534500</v>
-      </c>
-      <c r="F236" t="n">
-        <v>7226.73</v>
-      </c>
-      <c r="G236" t="n">
-        <v>0.0044</v>
-      </c>
-      <c r="H236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr"/>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>One 97 Communications Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>Financial Technology (Fintech)</t>
-        </is>
-      </c>
-      <c r="E237" t="n">
-        <v>629300</v>
-      </c>
-      <c r="F237" t="n">
-        <v>7170.87</v>
-      </c>
-      <c r="G237" t="n">
-        <v>0.0044</v>
-      </c>
-      <c r="H237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr"/>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>Divi's Laboratories Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
-      <c r="E238" t="n">
-        <v>117100</v>
-      </c>
-      <c r="F238" t="n">
-        <v>7104.46</v>
-      </c>
-      <c r="G238" t="n">
-        <v>0.0043</v>
-      </c>
-      <c r="H238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr"/>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>IndusInd Bank Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E239" t="n">
-        <v>784000</v>
-      </c>
-      <c r="F239" t="n">
-        <v>7026.6</v>
-      </c>
-      <c r="G239" t="n">
-        <v>0.0043</v>
-      </c>
-      <c r="H239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr"/>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>Sammaan Capital Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E240" t="n">
-        <v>4635400</v>
-      </c>
-      <c r="F240" t="n">
-        <v>7015.21</v>
-      </c>
-      <c r="G240" t="n">
-        <v>0.0043</v>
-      </c>
-      <c r="H240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr"/>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>Crompton Greaves Consumer Electricals Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>Consumer Durables</t>
-        </is>
-      </c>
-      <c r="E241" t="n">
-        <v>3103200</v>
-      </c>
-      <c r="F241" t="n">
-        <v>6909.27</v>
-      </c>
-      <c r="G241" t="n">
-        <v>0.0042</v>
-      </c>
-      <c r="H241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr"/>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>Apollo Hospitals Enterprise Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>Healthcare Services</t>
-        </is>
-      </c>
-      <c r="E242" t="n">
-        <v>94750</v>
-      </c>
-      <c r="F242" t="n">
-        <v>6600.76</v>
-      </c>
-      <c r="G242" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="H242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr"/>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>LIC Housing Finance Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E243" t="n">
-        <v>1224000</v>
-      </c>
-      <c r="F243" t="n">
-        <v>6467.62</v>
-      </c>
-      <c r="G243" t="n">
-        <v>0.0039</v>
-      </c>
-      <c r="H243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr"/>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>Lodha Developers Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>Realty</t>
-        </is>
-      </c>
-      <c r="E244" t="n">
-        <v>643050</v>
-      </c>
-      <c r="F244" t="n">
-        <v>6258.16</v>
-      </c>
-      <c r="G244" t="n">
-        <v>0.0038</v>
-      </c>
-      <c r="H244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr"/>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>Nestle India Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>Food Products</t>
-        </is>
-      </c>
-      <c r="E245" t="n">
-        <v>467000</v>
-      </c>
-      <c r="F245" t="n">
-        <v>6207.36</v>
-      </c>
-      <c r="G245" t="n">
-        <v>0.0038</v>
-      </c>
-      <c r="H245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr"/>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>Max Financial Services Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>Insurance</t>
-        </is>
-      </c>
-      <c r="E246" t="n">
-        <v>360800</v>
-      </c>
-      <c r="F246" t="n">
-        <v>5835.58</v>
-      </c>
-      <c r="G246" t="n">
-        <v>0.0036</v>
-      </c>
-      <c r="H246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr"/>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>InterGlobe Aviation Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>Transport Services</t>
-        </is>
-      </c>
-      <c r="E247" t="n">
-        <v>121800</v>
-      </c>
-      <c r="F247" t="n">
-        <v>5627.77</v>
-      </c>
-      <c r="G247" t="n">
-        <v>0.0034</v>
-      </c>
-      <c r="H247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr"/>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>Samvardhana Motherson International Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>Auto Components</t>
-        </is>
-      </c>
-      <c r="E248" t="n">
-        <v>4698600</v>
-      </c>
-      <c r="F248" t="n">
-        <v>5310.36</v>
-      </c>
-      <c r="G248" t="n">
-        <v>0.0032</v>
-      </c>
-      <c r="H248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr"/>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>Bajaj Finserv Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E249" t="n">
-        <v>261000</v>
-      </c>
-      <c r="F249" t="n">
-        <v>5106.73</v>
-      </c>
-      <c r="G249" t="n">
-        <v>0.0031</v>
-      </c>
-      <c r="H249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr"/>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>REC Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E250" t="n">
-        <v>1416800</v>
-      </c>
-      <c r="F250" t="n">
-        <v>5106.15</v>
-      </c>
-      <c r="G250" t="n">
-        <v>0.0031</v>
-      </c>
-      <c r="H250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr"/>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>Adani Green Energy Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="E251" t="n">
-        <v>595800</v>
-      </c>
-      <c r="F251" t="n">
-        <v>5088.73</v>
-      </c>
-      <c r="G251" t="n">
-        <v>0.0031</v>
-      </c>
-      <c r="H251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr"/>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>Hindustan Zinc Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>Non - Ferrous Metals</t>
-        </is>
-      </c>
-      <c r="E252" t="n">
-        <v>792575</v>
-      </c>
-      <c r="F252" t="n">
-        <v>4999.96</v>
-      </c>
-      <c r="G252" t="n">
-        <v>0.0031</v>
-      </c>
-      <c r="H252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr"/>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>Bank of Baroda_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E253" t="n">
-        <v>1655550</v>
-      </c>
-      <c r="F253" t="n">
-        <v>4974.1</v>
-      </c>
-      <c r="G253" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="H253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr"/>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>UPL Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>Fertilizers &amp; Agrochemicals</t>
-        </is>
-      </c>
-      <c r="E254" t="n">
-        <v>685630</v>
-      </c>
-      <c r="F254" t="n">
-        <v>4844.32</v>
-      </c>
-      <c r="G254" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="H254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr"/>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>Dr. Reddy's Laboratories Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
-      <c r="E255" t="n">
-        <v>382500</v>
-      </c>
-      <c r="F255" t="n">
-        <v>4673.77</v>
-      </c>
-      <c r="G255" t="n">
-        <v>0.0029</v>
-      </c>
-      <c r="H255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr"/>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>Hindustan Aeronautics Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>Aerospace &amp; Defense</t>
-        </is>
-      </c>
-      <c r="E256" t="n">
-        <v>97350</v>
-      </c>
-      <c r="F256" t="n">
-        <v>4503.02</v>
-      </c>
-      <c r="G256" t="n">
-        <v>0.0027</v>
-      </c>
-      <c r="H256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr"/>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>Bharat Forge Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>Auto Components</t>
-        </is>
-      </c>
-      <c r="E257" t="n">
-        <v>311000</v>
-      </c>
-      <c r="F257" t="n">
-        <v>4483.69</v>
-      </c>
-      <c r="G257" t="n">
-        <v>0.0027</v>
-      </c>
-      <c r="H257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr"/>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>Bandhan Bank Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E258" t="n">
-        <v>2826000</v>
-      </c>
-      <c r="F258" t="n">
-        <v>4383.41</v>
-      </c>
-      <c r="G258" t="n">
-        <v>0.0027</v>
-      </c>
-      <c r="H258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr"/>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>Punjab National Bank_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E259" t="n">
-        <v>3432000</v>
-      </c>
-      <c r="F259" t="n">
-        <v>4316.08</v>
-      </c>
-      <c r="G259" t="n">
-        <v>0.0026</v>
-      </c>
-      <c r="H259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr"/>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>Power Grid Corporation of India Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="E260" t="n">
-        <v>1660600</v>
-      </c>
-      <c r="F260" t="n">
-        <v>4227.06</v>
-      </c>
-      <c r="G260" t="n">
-        <v>0.0026</v>
-      </c>
-      <c r="H260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr"/>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>Biocon Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
-      <c r="E261" t="n">
-        <v>1115000</v>
-      </c>
-      <c r="F261" t="n">
-        <v>4104.87</v>
-      </c>
-      <c r="G261" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="H261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr"/>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>Sona BLW Precision Forgings Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>Auto Components</t>
-        </is>
-      </c>
-      <c r="E262" t="n">
-        <v>821975</v>
-      </c>
-      <c r="F262" t="n">
-        <v>4083.98</v>
-      </c>
-      <c r="G262" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="H262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr"/>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>Infosys Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>IT - Software</t>
-        </is>
-      </c>
-      <c r="E263" t="n">
-        <v>246000</v>
-      </c>
-      <c r="F263" t="n">
-        <v>4046.45</v>
-      </c>
-      <c r="G263" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="H263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr"/>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>HCL Technologies Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>IT - Software</t>
-        </is>
-      </c>
-      <c r="E264" t="n">
-        <v>224000</v>
-      </c>
-      <c r="F264" t="n">
-        <v>3805.76</v>
-      </c>
-      <c r="G264" t="n">
-        <v>0.0023</v>
-      </c>
-      <c r="H264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr"/>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>ICICI Prudential Life Insurance Company Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>Insurance</t>
-        </is>
-      </c>
-      <c r="E265" t="n">
-        <v>594775</v>
-      </c>
-      <c r="F265" t="n">
-        <v>3799.72</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.0023</v>
-      </c>
-      <c r="H265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr"/>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>Eternal Limited_30/03/2026</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>Retailing</t>
-        </is>
-      </c>
-      <c r="E266" t="n">
-        <v>1353150</v>
-      </c>
-      <c r="F266" t="n">
-        <v>3728.6</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.0023</v>
-      </c>
-      <c r="H266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr"/>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>Cholamandalam Investment and Finance Company Ltd_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E267" t="n">
-        <v>222500</v>
-      </c>
-      <c r="F267" t="n">
-        <v>3635.21</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.0022</v>
-      </c>
-      <c r="H267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr"/>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>GAIL (India) Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>Gas</t>
-        </is>
-      </c>
-      <c r="E268" t="n">
-        <v>2157750</v>
-      </c>
-      <c r="F268" t="n">
-        <v>3622.86</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.0022</v>
-      </c>
-      <c r="H268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr"/>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>Dalmia Bharat Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>Cement &amp; Cement Products</t>
-        </is>
-      </c>
-      <c r="E269" t="n">
-        <v>174200</v>
-      </c>
-      <c r="F269" t="n">
-        <v>3609.42</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.0022</v>
-      </c>
-      <c r="H269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr"/>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>Delhivery Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>Transport Services</t>
-        </is>
-      </c>
-      <c r="E270" t="n">
-        <v>809250</v>
-      </c>
-      <c r="F270" t="n">
-        <v>3442.55</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.0021</v>
-      </c>
-      <c r="H270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr"/>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>SBI Life Insurance Company Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>Insurance</t>
-        </is>
-      </c>
-      <c r="E271" t="n">
-        <v>169500</v>
-      </c>
-      <c r="F271" t="n">
-        <v>3402.2</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.0021</v>
-      </c>
-      <c r="H271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr"/>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>Havells India Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>Consumer Durables</t>
-        </is>
-      </c>
-      <c r="E272" t="n">
-        <v>256000</v>
-      </c>
-      <c r="F272" t="n">
-        <v>3306.5</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="H272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr"/>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>SRF Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>Chemicals &amp; Petrochemicals</t>
-        </is>
-      </c>
-      <c r="E273" t="n">
-        <v>114800</v>
-      </c>
-      <c r="F273" t="n">
-        <v>3238.39</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="H273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr"/>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>Mphasis Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>IT - Software</t>
-        </is>
-      </c>
-      <c r="E274" t="n">
-        <v>114400</v>
-      </c>
-      <c r="F274" t="n">
-        <v>3166.94</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.0019</v>
-      </c>
-      <c r="H274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr"/>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>Max Healthcare Institute Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>Healthcare Services</t>
-        </is>
-      </c>
-      <c r="E275" t="n">
-        <v>323925</v>
-      </c>
-      <c r="F275" t="n">
-        <v>3114.86</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.0019</v>
-      </c>
-      <c r="H275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr"/>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>Manappuram Finance Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E276" t="n">
-        <v>1089000</v>
-      </c>
-      <c r="F276" t="n">
-        <v>3106.92</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.0019</v>
-      </c>
-      <c r="H276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr"/>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>Pidilite Industries Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>Chemicals &amp; Petrochemicals</t>
-        </is>
-      </c>
-      <c r="E277" t="n">
-        <v>210500</v>
-      </c>
-      <c r="F277" t="n">
-        <v>3017.1</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.0018</v>
-      </c>
-      <c r="H277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr"/>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>Muthoot Finance Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E278" t="n">
-        <v>78100</v>
-      </c>
-      <c r="F278" t="n">
-        <v>2992.71</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.0018</v>
-      </c>
-      <c r="H278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr"/>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>United Spirits Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>Beverages</t>
-        </is>
-      </c>
-      <c r="E279" t="n">
-        <v>212400</v>
-      </c>
-      <c r="F279" t="n">
-        <v>2899.05</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.0018</v>
-      </c>
-      <c r="H279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr"/>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>Tata Consultancy Services Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>IT - Software</t>
-        </is>
-      </c>
-      <c r="E280" t="n">
-        <v>86100</v>
-      </c>
-      <c r="F280" t="n">
-        <v>2702.94</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.0016</v>
-      </c>
-      <c r="H280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr"/>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>Petronet LNG Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>Gas</t>
-        </is>
-      </c>
-      <c r="E281" t="n">
-        <v>912000</v>
-      </c>
-      <c r="F281" t="n">
-        <v>2649.82</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.0016</v>
-      </c>
-      <c r="H281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr"/>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>The Phoenix Mills Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>Realty</t>
-        </is>
-      </c>
-      <c r="E282" t="n">
-        <v>156450</v>
-      </c>
-      <c r="F282" t="n">
-        <v>2626.33</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.0016</v>
-      </c>
-      <c r="H282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr"/>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>Suzlon Energy Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>Electrical Equipment</t>
-        </is>
-      </c>
-      <c r="E283" t="n">
-        <v>5460125</v>
-      </c>
-      <c r="F283" t="n">
-        <v>2610.49</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.0016</v>
-      </c>
-      <c r="H283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr"/>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>Fortis Healthcare Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>Healthcare Services</t>
-        </is>
-      </c>
-      <c r="E284" t="n">
-        <v>294500</v>
-      </c>
-      <c r="F284" t="n">
-        <v>2513.7</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="H284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr"/>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>Oil &amp; Natural Gas Corporation Limited_30/03/2026</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="E285" t="n">
-        <v>911250</v>
-      </c>
-      <c r="F285" t="n">
-        <v>2455</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="H285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr"/>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>Kaynes Technology India Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>Industrial Manufacturing</t>
-        </is>
-      </c>
-      <c r="E286" t="n">
-        <v>69800</v>
-      </c>
-      <c r="F286" t="n">
-        <v>2433.09</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="H286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr"/>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>Housing &amp; Urban Development Corporation Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E287" t="n">
-        <v>1270950</v>
-      </c>
-      <c r="F287" t="n">
-        <v>2425.61</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="H287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr"/>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>Power Finance Corporation Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E288" t="n">
-        <v>638300</v>
-      </c>
-      <c r="F288" t="n">
-        <v>2404.48</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="H288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr"/>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>Indian Oil Corporation Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>Petroleum Products</t>
-        </is>
-      </c>
-      <c r="E289" t="n">
-        <v>1447875</v>
-      </c>
-      <c r="F289" t="n">
-        <v>2363.37</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="H289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr"/>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>GMR Airports Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>Transport Infrastructure</t>
-        </is>
-      </c>
-      <c r="E290" t="n">
-        <v>2483100</v>
-      </c>
-      <c r="F290" t="n">
-        <v>2337.59</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="H290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr"/>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>Exide Industries Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>Auto Components</t>
-        </is>
-      </c>
-      <c r="E291" t="n">
-        <v>707400</v>
-      </c>
-      <c r="F291" t="n">
-        <v>2286.67</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="H291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr"/>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>Bank of India_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E292" t="n">
-        <v>1383200</v>
-      </c>
-      <c r="F292" t="n">
-        <v>2281.45</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="H292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr"/>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>Tata Motors Passenger Vehicles Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>Automobiles</t>
-        </is>
-      </c>
-      <c r="E293" t="n">
-        <v>624000</v>
-      </c>
-      <c r="F293" t="n">
-        <v>2188.99</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="H293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr"/>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>Persistent Systems Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>IT - Software</t>
-        </is>
-      </c>
-      <c r="E294" t="n">
-        <v>35800</v>
-      </c>
-      <c r="F294" t="n">
-        <v>2165.01</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="H294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr"/>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>Trent Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>Retailing</t>
-        </is>
-      </c>
-      <c r="E295" t="n">
-        <v>55000</v>
-      </c>
-      <c r="F295" t="n">
-        <v>2083.95</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="H295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr"/>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>Tata Power Company Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="E296" t="n">
-        <v>561150</v>
-      </c>
-      <c r="F296" t="n">
-        <v>2059.42</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="H296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr"/>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>CG Power and Industrial Solutions Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>Electrical Equipment</t>
-        </is>
-      </c>
-      <c r="E297" t="n">
-        <v>334050</v>
-      </c>
-      <c r="F297" t="n">
-        <v>1957.87</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="H297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr"/>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>NBCC (India) Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>Construction</t>
-        </is>
-      </c>
-      <c r="E298" t="n">
-        <v>1976000</v>
-      </c>
-      <c r="F298" t="n">
-        <v>1954.07</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="H298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr"/>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>Hindustan Unilever Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>Diversified FMCG</t>
-        </is>
-      </c>
-      <c r="E299" t="n">
-        <v>81900</v>
-      </c>
-      <c r="F299" t="n">
-        <v>1945.21</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="H299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr"/>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>Jindal Steel Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>Ferrous Metals</t>
-        </is>
-      </c>
-      <c r="E300" t="n">
-        <v>170000</v>
-      </c>
-      <c r="F300" t="n">
-        <v>1925.59</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="H300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr"/>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>Solar Industries India Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>Chemicals &amp; Petrochemicals</t>
-        </is>
-      </c>
-      <c r="E301" t="n">
-        <v>14200</v>
-      </c>
-      <c r="F301" t="n">
-        <v>1918.56</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="H301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr"/>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>TVS Motor Company Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>Automobiles</t>
-        </is>
-      </c>
-      <c r="E302" t="n">
-        <v>51100</v>
-      </c>
-      <c r="F302" t="n">
-        <v>1886.82</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="H302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr"/>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>Bharat Heavy Electricals Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>Electrical Equipment</t>
-        </is>
-      </c>
-      <c r="E303" t="n">
-        <v>695625</v>
-      </c>
-      <c r="F303" t="n">
-        <v>1831.93</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="H303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr"/>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>Inox Wind Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>Electrical Equipment</t>
-        </is>
-      </c>
-      <c r="E304" t="n">
-        <v>1665950</v>
-      </c>
-      <c r="F304" t="n">
-        <v>1800.56</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="H304" t="inlineStr"/>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr"/>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>The Indian Hotels Company Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>Leisure Services</t>
-        </is>
-      </c>
-      <c r="E305" t="n">
-        <v>257000</v>
-      </c>
-      <c r="F305" t="n">
-        <v>1736.16</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="H305" t="inlineStr"/>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr"/>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>Tata Consumer Products Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>Agricultural Food &amp; other Products</t>
-        </is>
-      </c>
-      <c r="E306" t="n">
-        <v>148500</v>
-      </c>
-      <c r="F306" t="n">
-        <v>1692.01</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H306" t="inlineStr"/>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr"/>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>PNB Housing Finance Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E307" t="n">
-        <v>195000</v>
-      </c>
-      <c r="F307" t="n">
-        <v>1611.38</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H307" t="inlineStr"/>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr"/>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>Britannia Industries Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>Food Products</t>
-        </is>
-      </c>
-      <c r="E308" t="n">
-        <v>26125</v>
-      </c>
-      <c r="F308" t="n">
-        <v>1534.58</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="H308" t="inlineStr"/>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr"/>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>PB Fintech Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>Financial Technology (Fintech)</t>
-        </is>
-      </c>
-      <c r="E309" t="n">
-        <v>92400</v>
-      </c>
-      <c r="F309" t="n">
-        <v>1531.81</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="H309" t="inlineStr"/>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr"/>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>Oil &amp; Natural Gas Corporation Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="E310" t="n">
-        <v>569250</v>
-      </c>
-      <c r="F310" t="n">
-        <v>1527.58</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="H310" t="inlineStr"/>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr"/>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>Tata Elxsi Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>IT - Software</t>
-        </is>
-      </c>
-      <c r="E311" t="n">
-        <v>28100</v>
-      </c>
-      <c r="F311" t="n">
-        <v>1498.71</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="H311" t="inlineStr"/>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr"/>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>Syngene International Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>Healthcare Services</t>
-        </is>
-      </c>
-      <c r="E312" t="n">
-        <v>315000</v>
-      </c>
-      <c r="F312" t="n">
-        <v>1498.46</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="H312" t="inlineStr"/>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr"/>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>Bharat Dynamics Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>Aerospace &amp; Defense</t>
-        </is>
-      </c>
-      <c r="E313" t="n">
-        <v>96600</v>
-      </c>
-      <c r="F313" t="n">
-        <v>1481.75</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="H313" t="inlineStr"/>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr"/>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>Tech Mahindra Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D314" t="inlineStr">
-        <is>
-          <t>IT - Software</t>
-        </is>
-      </c>
-      <c r="E314" t="n">
-        <v>84600</v>
-      </c>
-      <c r="F314" t="n">
-        <v>1478.13</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="H314" t="inlineStr"/>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr"/>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>Alkem Laboratories Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
-      <c r="E315" t="n">
-        <v>22000</v>
-      </c>
-      <c r="F315" t="n">
-        <v>1243.77</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.0008</v>
-      </c>
-      <c r="H315" t="inlineStr"/>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr"/>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>UNO Minda Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>Auto Components</t>
-        </is>
-      </c>
-      <c r="E316" t="n">
-        <v>102850</v>
-      </c>
-      <c r="F316" t="n">
-        <v>1218.57</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="H316" t="inlineStr"/>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr"/>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>Kalyan Jewellers India Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>Consumer Durables</t>
-        </is>
-      </c>
-      <c r="E317" t="n">
-        <v>326650</v>
-      </c>
-      <c r="F317" t="n">
-        <v>1183.45</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="H317" t="inlineStr"/>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr"/>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>Supreme Industries Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>Industrial Products</t>
-        </is>
-      </c>
-      <c r="E318" t="n">
-        <v>32375</v>
-      </c>
-      <c r="F318" t="n">
-        <v>1141.61</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="H318" t="inlineStr"/>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr"/>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>Dabur India Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>Personal Products</t>
-        </is>
-      </c>
-      <c r="E319" t="n">
-        <v>213750</v>
-      </c>
-      <c r="F319" t="n">
-        <v>1086.92</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="H319" t="inlineStr"/>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr"/>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>Cipla Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
-      <c r="E320" t="n">
-        <v>79125</v>
-      </c>
-      <c r="F320" t="n">
-        <v>1052.28</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="H320" t="inlineStr"/>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr"/>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>Zydus Lifesciences Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
-      <c r="E321" t="n">
-        <v>99900</v>
-      </c>
-      <c r="F321" t="n">
-        <v>887.71</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="H321" t="inlineStr"/>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr"/>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>Amber Enterprises India Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr">
-        <is>
-          <t>Consumer Durables</t>
-        </is>
-      </c>
-      <c r="E322" t="n">
-        <v>15200</v>
-      </c>
-      <c r="F322" t="n">
-        <v>873.54</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="H322" t="inlineStr"/>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr"/>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>Asian Paints Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D323" t="inlineStr">
-        <is>
-          <t>Consumer Durables</t>
-        </is>
-      </c>
-      <c r="E323" t="n">
-        <v>35750</v>
-      </c>
-      <c r="F323" t="n">
-        <v>872.26</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="H323" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr"/>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>Eicher Motors Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D324" t="inlineStr">
-        <is>
-          <t>Automobiles</t>
-        </is>
-      </c>
-      <c r="E324" t="n">
-        <v>12100</v>
-      </c>
-      <c r="F324" t="n">
-        <v>863.27</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="H324" t="inlineStr"/>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr"/>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>Jio Financial Services Limited_30/03/2026</t>
-        </is>
-      </c>
-      <c r="D325" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E325" t="n">
-        <v>324300</v>
-      </c>
-      <c r="F325" t="n">
-        <v>833.13</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="H325" t="inlineStr"/>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr"/>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>Info Edge (India) Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>Retailing</t>
-        </is>
-      </c>
-      <c r="E326" t="n">
-        <v>63375</v>
-      </c>
-      <c r="F326" t="n">
-        <v>795.86</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="H326" t="inlineStr"/>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr"/>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>REC Limited_30/03/2026</t>
-        </is>
-      </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E327" t="n">
-        <v>212800</v>
-      </c>
-      <c r="F327" t="n">
-        <v>768.85</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="H327" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr"/>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>Torrent Pharmaceuticals Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
-      <c r="E328" t="n">
-        <v>19000</v>
-      </c>
-      <c r="F328" t="n">
-        <v>750.6900000000001</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="H328" t="inlineStr"/>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr"/>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>Torrent Power Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="E329" t="n">
-        <v>54400</v>
-      </c>
-      <c r="F329" t="n">
-        <v>748.22</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="H329" t="inlineStr"/>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr"/>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>The Federal Bank Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E330" t="n">
-        <v>235000</v>
-      </c>
-      <c r="F330" t="n">
-        <v>677.86</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="H330" t="inlineStr"/>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr"/>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>Mazagon Dock Shipbuilders Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>Industrial Manufacturing</t>
-        </is>
-      </c>
-      <c r="E331" t="n">
-        <v>26200</v>
-      </c>
-      <c r="F331" t="n">
-        <v>675.23</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="H331" t="inlineStr"/>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr"/>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>Bosch Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>Auto Components</t>
-        </is>
-      </c>
-      <c r="E332" t="n">
-        <v>1800</v>
-      </c>
-      <c r="F332" t="n">
-        <v>656.8200000000001</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="H332" t="inlineStr"/>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr"/>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>Maruti Suzuki India Limited_30/03/2026</t>
-        </is>
-      </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>Automobiles</t>
-        </is>
-      </c>
-      <c r="E333" t="n">
-        <v>4100</v>
-      </c>
-      <c r="F333" t="n">
-        <v>605.2</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="H333" t="inlineStr"/>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr"/>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>Life Insurance Corporation Of India_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>Insurance</t>
-        </is>
-      </c>
-      <c r="E334" t="n">
-        <v>63700</v>
-      </c>
-      <c r="F334" t="n">
-        <v>526.74</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="H334" t="inlineStr"/>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr"/>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>Premier Energies Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>Electrical Equipment</t>
-        </is>
-      </c>
-      <c r="E335" t="n">
-        <v>71875</v>
-      </c>
-      <c r="F335" t="n">
-        <v>519.62</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="H335" t="inlineStr"/>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr"/>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>Prestige Estates Projects Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>Realty</t>
-        </is>
-      </c>
-      <c r="E336" t="n">
-        <v>32850</v>
-      </c>
-      <c r="F336" t="n">
-        <v>480.99</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="H336" t="inlineStr"/>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr"/>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>LTIMindtree Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>IT - Software</t>
-        </is>
-      </c>
-      <c r="E337" t="n">
-        <v>7500</v>
-      </c>
-      <c r="F337" t="n">
-        <v>449.48</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="H337" t="inlineStr"/>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr"/>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>Voltas Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>Consumer Durables</t>
-        </is>
-      </c>
-      <c r="E338" t="n">
-        <v>33750</v>
-      </c>
-      <c r="F338" t="n">
-        <v>447.93</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="H338" t="inlineStr"/>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr"/>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>SBI Cards and Payment Services Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E339" t="n">
-        <v>59200</v>
-      </c>
-      <c r="F339" t="n">
-        <v>447.91</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="H339" t="inlineStr"/>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr"/>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>Oracle Financial Services Software Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>IT - Software</t>
-        </is>
-      </c>
-      <c r="E340" t="n">
-        <v>5700</v>
-      </c>
-      <c r="F340" t="n">
-        <v>443.37</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="H340" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr"/>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>HDFC Life Insurance Company Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D341" t="inlineStr">
-        <is>
-          <t>Insurance</t>
-        </is>
-      </c>
-      <c r="E341" t="n">
-        <v>58300</v>
-      </c>
-      <c r="F341" t="n">
-        <v>427.63</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="H341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr"/>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>FSN E-Commerce Ventures Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>Retailing</t>
-        </is>
-      </c>
-      <c r="E342" t="n">
-        <v>165625</v>
-      </c>
-      <c r="F342" t="n">
-        <v>395.02</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="H342" t="inlineStr"/>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr"/>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>Vedanta Limited_30/03/2026</t>
-        </is>
-      </c>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>Diversified Metals</t>
-        </is>
-      </c>
-      <c r="E343" t="n">
-        <v>57500</v>
-      </c>
-      <c r="F343" t="n">
-        <v>394.74</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="H343" t="inlineStr"/>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr"/>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>Hindustan Petroleum Corporation Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>Petroleum Products</t>
-        </is>
-      </c>
-      <c r="E344" t="n">
-        <v>89100</v>
-      </c>
-      <c r="F344" t="n">
-        <v>381.93</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="H344" t="inlineStr"/>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr"/>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>Nuvama Wealth Management Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>Capital Markets</t>
-        </is>
-      </c>
-      <c r="E345" t="n">
-        <v>28000</v>
-      </c>
-      <c r="F345" t="n">
-        <v>377.55</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="H345" t="inlineStr"/>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr"/>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>Power Finance Corporation Limited_30/03/2026</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E346" t="n">
-        <v>93600</v>
-      </c>
-      <c r="F346" t="n">
-        <v>351</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="H346" t="inlineStr"/>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr"/>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C347" t="inlineStr">
-        <is>
-          <t>Union Bank of India_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E347" t="n">
-        <v>159300</v>
-      </c>
-      <c r="F347" t="n">
-        <v>289.02</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="H347" t="inlineStr"/>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr"/>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>Coal India Limited_30/03/2026</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>Consumable Fuels</t>
-        </is>
-      </c>
-      <c r="E348" t="n">
-        <v>64800</v>
-      </c>
-      <c r="F348" t="n">
-        <v>283.4</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="H348" t="inlineStr"/>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr"/>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>Bajaj Holdings &amp; Investment Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E349" t="n">
-        <v>2150</v>
-      </c>
-      <c r="F349" t="n">
-        <v>232.54</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="H349" t="inlineStr"/>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr"/>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t>Power Grid Corporation of India Limited_30/03/2026</t>
-        </is>
-      </c>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="E350" t="n">
-        <v>83600</v>
-      </c>
-      <c r="F350" t="n">
-        <v>214.06</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="H350" t="inlineStr"/>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr"/>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>Bajaj Auto Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>Automobiles</t>
-        </is>
-      </c>
-      <c r="E351" t="n">
-        <v>2175</v>
-      </c>
-      <c r="F351" t="n">
-        <v>209.41</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="H351" t="inlineStr"/>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr"/>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C352" t="inlineStr">
-        <is>
-          <t>Jubilant Foodworks Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D352" t="inlineStr">
-        <is>
-          <t>Leisure Services</t>
-        </is>
-      </c>
-      <c r="E352" t="n">
-        <v>40000</v>
-      </c>
-      <c r="F352" t="n">
-        <v>199.38</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="H352" t="inlineStr"/>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr"/>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C353" t="inlineStr">
-        <is>
-          <t>Godrej Consumer Products Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>Personal Products</t>
-        </is>
-      </c>
-      <c r="E353" t="n">
-        <v>16500</v>
-      </c>
-      <c r="F353" t="n">
-        <v>191.4</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="H353" t="inlineStr"/>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr"/>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>Indian Bank_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E354" t="n">
-        <v>18000</v>
-      </c>
-      <c r="F354" t="n">
-        <v>164.16</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="H354" t="inlineStr"/>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr"/>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C355" t="inlineStr">
-        <is>
-          <t>PG Electroplast Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D355" t="inlineStr">
-        <is>
-          <t>Consumer Durables</t>
-        </is>
-      </c>
-      <c r="E355" t="n">
-        <v>20900</v>
-      </c>
-      <c r="F355" t="n">
-        <v>114.84</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="H355" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr"/>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C356" t="inlineStr">
-        <is>
-          <t>Tata Technologies Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t>IT - Services</t>
-        </is>
-      </c>
-      <c r="E356" t="n">
-        <v>14400</v>
-      </c>
-      <c r="F356" t="n">
-        <v>93.48999999999999</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="H356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr"/>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C357" t="inlineStr">
-        <is>
-          <t>Canara Bank_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E357" t="n">
-        <v>60750</v>
-      </c>
-      <c r="F357" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="H357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr"/>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t>Waaree Energies Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>Electrical Equipment</t>
-        </is>
-      </c>
-      <c r="E358" t="n">
-        <v>2450</v>
-      </c>
-      <c r="F358" t="n">
-        <v>68.51000000000001</v>
-      </c>
-      <c r="G358" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
-      </c>
-      <c r="H358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr"/>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C359" t="inlineStr">
-        <is>
-          <t>State Bank of India_30/03/2026</t>
-        </is>
-      </c>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E359" t="n">
-        <v>5250</v>
-      </c>
-      <c r="F359" t="n">
-        <v>57.19</v>
-      </c>
-      <c r="G359" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
-      </c>
-      <c r="H359" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr"/>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t>Mankind Pharma Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
-      <c r="E360" t="n">
-        <v>2475</v>
-      </c>
-      <c r="F360" t="n">
-        <v>52.48</v>
-      </c>
-      <c r="G360" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
-      </c>
-      <c r="H360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr"/>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C361" t="inlineStr">
-        <is>
-          <t>HDFC Asset Management Company Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>Capital Markets</t>
-        </is>
-      </c>
-      <c r="E361" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F361" t="n">
-        <v>37.88</v>
-      </c>
-      <c r="G361" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
-      </c>
-      <c r="H361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr"/>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>NTPC Limited_30/03/2026</t>
-        </is>
-      </c>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="E362" t="n">
-        <v>9000</v>
-      </c>
-      <c r="F362" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="G362" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
-      </c>
-      <c r="H362" t="inlineStr"/>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr"/>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C363" t="inlineStr">
-        <is>
-          <t>United Spirits Limited_30/03/2026</t>
-        </is>
-      </c>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t>Beverages</t>
-        </is>
-      </c>
-      <c r="E363" t="n">
-        <v>1200</v>
-      </c>
-      <c r="F363" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="G363" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
-      </c>
-      <c r="H363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr"/>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C364" t="inlineStr">
-        <is>
-          <t>JSW Energy Limited_24/02/2026</t>
-        </is>
-      </c>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="E364" t="n">
-        <v>3000</v>
-      </c>
-      <c r="F364" t="n">
-        <v>13.82</v>
-      </c>
-      <c r="G364" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
-      </c>
-      <c r="H364" t="inlineStr"/>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr"/>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t>Yes Bank Limited_30/03/2026</t>
-        </is>
-      </c>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E365" t="n">
-        <v>62200</v>
-      </c>
-      <c r="F365" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="G365" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
-      </c>
-      <c r="H365" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
